--- a/src/main/resources/AzubiDaten.xlsx
+++ b/src/main/resources/AzubiDaten.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name, Vorname</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>FIAE</t>
+  </si>
+  <si>
+    <t>Praktikumsabschnitt</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -383,9 +386,10 @@
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="8" max="8" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +411,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -429,6 +436,9 @@
       </c>
       <c r="G2" s="2">
         <v>43557</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/AzubiDaten.xlsx
+++ b/src/main/resources/AzubiDaten.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA6B6F-ADDD-D149-AB5E-767580779537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,13 +49,13 @@
     <t>Leopold Str. 25, 80487 München</t>
   </si>
   <si>
-    <t>FIAE</t>
+    <t>FISI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,23 +370,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
